--- a/database/dictionary_data.xlsx
+++ b/database/dictionary_data.xlsx
@@ -652,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -759,14 +759,11 @@
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -2039,21 +2036,21 @@
     </row>
     <row r="70">
       <c r="A70" s="35"/>
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="36" t="s">
         <v>127</v>
       </c>
       <c r="B71" s="24" t="s">
@@ -2070,14 +2067,14 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="10"/>
+      <c r="A72" s="34"/>
       <c r="B72" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E72" s="38" t="s">
@@ -2085,7 +2082,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="10"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="7" t="s">
         <v>131</v>
       </c>
@@ -2100,7 +2097,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="10"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="7" t="s">
         <v>133</v>
       </c>
@@ -2115,7 +2112,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="10"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="7" t="s">
         <v>135</v>
       </c>
@@ -2130,7 +2127,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="10"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="7" t="s">
         <v>138</v>
       </c>
@@ -2145,7 +2142,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="10"/>
+      <c r="A77" s="34"/>
       <c r="B77" s="7" t="s">
         <v>141</v>
       </c>
@@ -2160,7 +2157,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="10"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="7" t="s">
         <v>143</v>
       </c>
@@ -2175,7 +2172,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="10"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="11" t="s">
         <v>145</v>
       </c>
@@ -2190,7 +2187,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="10"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="11" t="s">
         <v>147</v>
       </c>
@@ -2205,17 +2202,17 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="19"/>
-      <c r="B81" s="16" t="s">
+      <c r="A81" s="35"/>
+      <c r="B81" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E81" s="23" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2223,13 +2220,13 @@
       <c r="A82" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="12" t="s">
         <v>56</v>
       </c>
       <c r="E82" s="38" t="s">
@@ -2247,7 +2244,7 @@
       <c r="D83" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E83" s="40" t="s">
+      <c r="E83" s="38" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2262,7 +2259,7 @@
       <c r="D84" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="38" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2277,7 +2274,7 @@
       <c r="D85" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E85" s="40" t="s">
+      <c r="E85" s="38" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2312,2689 +2309,2689 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" s="41"/>
+      <c r="B88" s="40"/>
     </row>
     <row r="89">
-      <c r="B89" s="41"/>
+      <c r="B89" s="40"/>
     </row>
     <row r="90">
-      <c r="B90" s="41"/>
+      <c r="B90" s="40"/>
     </row>
     <row r="91">
-      <c r="B91" s="41"/>
+      <c r="B91" s="40"/>
     </row>
     <row r="92">
-      <c r="B92" s="41"/>
+      <c r="B92" s="40"/>
     </row>
     <row r="93">
-      <c r="B93" s="41"/>
+      <c r="B93" s="40"/>
     </row>
     <row r="94">
-      <c r="B94" s="41"/>
+      <c r="B94" s="40"/>
     </row>
     <row r="95">
-      <c r="B95" s="41"/>
+      <c r="B95" s="40"/>
     </row>
     <row r="96">
-      <c r="B96" s="41"/>
+      <c r="B96" s="40"/>
     </row>
     <row r="97">
-      <c r="B97" s="41"/>
+      <c r="B97" s="40"/>
     </row>
     <row r="98">
-      <c r="B98" s="41"/>
+      <c r="B98" s="40"/>
     </row>
     <row r="99">
-      <c r="B99" s="41"/>
+      <c r="B99" s="40"/>
     </row>
     <row r="100">
-      <c r="B100" s="41"/>
+      <c r="B100" s="40"/>
     </row>
     <row r="101">
-      <c r="B101" s="41"/>
+      <c r="B101" s="40"/>
     </row>
     <row r="102">
-      <c r="B102" s="41"/>
+      <c r="B102" s="40"/>
     </row>
     <row r="103">
-      <c r="B103" s="41"/>
+      <c r="B103" s="40"/>
     </row>
     <row r="104">
-      <c r="B104" s="41"/>
+      <c r="B104" s="40"/>
     </row>
     <row r="105">
-      <c r="B105" s="41"/>
+      <c r="B105" s="40"/>
     </row>
     <row r="106">
-      <c r="B106" s="41"/>
+      <c r="B106" s="40"/>
     </row>
     <row r="107">
-      <c r="B107" s="41"/>
+      <c r="B107" s="40"/>
     </row>
     <row r="108">
-      <c r="B108" s="41"/>
+      <c r="B108" s="40"/>
     </row>
     <row r="109">
-      <c r="B109" s="41"/>
+      <c r="B109" s="40"/>
     </row>
     <row r="110">
-      <c r="B110" s="41"/>
+      <c r="B110" s="40"/>
     </row>
     <row r="111">
-      <c r="B111" s="41"/>
+      <c r="B111" s="40"/>
     </row>
     <row r="112">
-      <c r="B112" s="41"/>
+      <c r="B112" s="40"/>
     </row>
     <row r="113">
-      <c r="B113" s="41"/>
+      <c r="B113" s="40"/>
     </row>
     <row r="114">
-      <c r="B114" s="41"/>
+      <c r="B114" s="40"/>
     </row>
     <row r="115">
-      <c r="B115" s="41"/>
+      <c r="B115" s="40"/>
     </row>
     <row r="116">
-      <c r="B116" s="41"/>
+      <c r="B116" s="40"/>
     </row>
     <row r="117">
-      <c r="B117" s="41"/>
+      <c r="B117" s="40"/>
     </row>
     <row r="118">
-      <c r="B118" s="41"/>
+      <c r="B118" s="40"/>
     </row>
     <row r="119">
-      <c r="B119" s="41"/>
+      <c r="B119" s="40"/>
     </row>
     <row r="120">
-      <c r="B120" s="41"/>
+      <c r="B120" s="40"/>
     </row>
     <row r="121">
-      <c r="B121" s="41"/>
+      <c r="B121" s="40"/>
     </row>
     <row r="122">
-      <c r="B122" s="41"/>
+      <c r="B122" s="40"/>
     </row>
     <row r="123">
-      <c r="B123" s="41"/>
+      <c r="B123" s="40"/>
     </row>
     <row r="124">
-      <c r="B124" s="41"/>
+      <c r="B124" s="40"/>
     </row>
     <row r="125">
-      <c r="B125" s="41"/>
+      <c r="B125" s="40"/>
     </row>
     <row r="126">
-      <c r="B126" s="41"/>
+      <c r="B126" s="40"/>
     </row>
     <row r="127">
-      <c r="B127" s="41"/>
+      <c r="B127" s="40"/>
     </row>
     <row r="128">
-      <c r="B128" s="41"/>
+      <c r="B128" s="40"/>
     </row>
     <row r="129">
-      <c r="B129" s="41"/>
+      <c r="B129" s="40"/>
     </row>
     <row r="130">
-      <c r="B130" s="41"/>
+      <c r="B130" s="40"/>
     </row>
     <row r="131">
-      <c r="B131" s="41"/>
+      <c r="B131" s="40"/>
     </row>
     <row r="132">
-      <c r="B132" s="41"/>
+      <c r="B132" s="40"/>
     </row>
     <row r="133">
-      <c r="B133" s="41"/>
+      <c r="B133" s="40"/>
     </row>
     <row r="134">
-      <c r="B134" s="41"/>
+      <c r="B134" s="40"/>
     </row>
     <row r="135">
-      <c r="B135" s="41"/>
+      <c r="B135" s="40"/>
     </row>
     <row r="136">
-      <c r="B136" s="41"/>
+      <c r="B136" s="40"/>
     </row>
     <row r="137">
-      <c r="B137" s="41"/>
+      <c r="B137" s="40"/>
     </row>
     <row r="138">
-      <c r="B138" s="41"/>
+      <c r="B138" s="40"/>
     </row>
     <row r="139">
-      <c r="B139" s="41"/>
+      <c r="B139" s="40"/>
     </row>
     <row r="140">
-      <c r="B140" s="41"/>
+      <c r="B140" s="40"/>
     </row>
     <row r="141">
-      <c r="B141" s="41"/>
+      <c r="B141" s="40"/>
     </row>
     <row r="142">
-      <c r="B142" s="41"/>
+      <c r="B142" s="40"/>
     </row>
     <row r="143">
-      <c r="B143" s="41"/>
+      <c r="B143" s="40"/>
     </row>
     <row r="144">
-      <c r="B144" s="41"/>
+      <c r="B144" s="40"/>
     </row>
     <row r="145">
-      <c r="B145" s="41"/>
+      <c r="B145" s="40"/>
     </row>
     <row r="146">
-      <c r="B146" s="41"/>
+      <c r="B146" s="40"/>
     </row>
     <row r="147">
-      <c r="B147" s="41"/>
+      <c r="B147" s="40"/>
     </row>
     <row r="148">
-      <c r="B148" s="41"/>
+      <c r="B148" s="40"/>
     </row>
     <row r="149">
-      <c r="B149" s="41"/>
+      <c r="B149" s="40"/>
     </row>
     <row r="150">
-      <c r="B150" s="41"/>
+      <c r="B150" s="40"/>
     </row>
     <row r="151">
-      <c r="B151" s="41"/>
+      <c r="B151" s="40"/>
     </row>
     <row r="152">
-      <c r="B152" s="41"/>
+      <c r="B152" s="40"/>
     </row>
     <row r="153">
-      <c r="B153" s="41"/>
+      <c r="B153" s="40"/>
     </row>
     <row r="154">
-      <c r="B154" s="41"/>
+      <c r="B154" s="40"/>
     </row>
     <row r="155">
-      <c r="B155" s="41"/>
+      <c r="B155" s="40"/>
     </row>
     <row r="156">
-      <c r="B156" s="41"/>
+      <c r="B156" s="40"/>
     </row>
     <row r="157">
-      <c r="B157" s="41"/>
+      <c r="B157" s="40"/>
     </row>
     <row r="158">
-      <c r="B158" s="41"/>
+      <c r="B158" s="40"/>
     </row>
     <row r="159">
-      <c r="B159" s="41"/>
+      <c r="B159" s="40"/>
     </row>
     <row r="160">
-      <c r="B160" s="41"/>
+      <c r="B160" s="40"/>
     </row>
     <row r="161">
-      <c r="B161" s="41"/>
+      <c r="B161" s="40"/>
     </row>
     <row r="162">
-      <c r="B162" s="41"/>
+      <c r="B162" s="40"/>
     </row>
     <row r="163">
-      <c r="B163" s="41"/>
+      <c r="B163" s="40"/>
     </row>
     <row r="164">
-      <c r="B164" s="41"/>
+      <c r="B164" s="40"/>
     </row>
     <row r="165">
-      <c r="B165" s="41"/>
+      <c r="B165" s="40"/>
     </row>
     <row r="166">
-      <c r="B166" s="41"/>
+      <c r="B166" s="40"/>
     </row>
     <row r="167">
-      <c r="B167" s="41"/>
+      <c r="B167" s="40"/>
     </row>
     <row r="168">
-      <c r="B168" s="41"/>
+      <c r="B168" s="40"/>
     </row>
     <row r="169">
-      <c r="B169" s="41"/>
+      <c r="B169" s="40"/>
     </row>
     <row r="170">
-      <c r="B170" s="41"/>
+      <c r="B170" s="40"/>
     </row>
     <row r="171">
-      <c r="B171" s="41"/>
+      <c r="B171" s="40"/>
     </row>
     <row r="172">
-      <c r="B172" s="41"/>
+      <c r="B172" s="40"/>
     </row>
     <row r="173">
-      <c r="B173" s="41"/>
+      <c r="B173" s="40"/>
     </row>
     <row r="174">
-      <c r="B174" s="41"/>
+      <c r="B174" s="40"/>
     </row>
     <row r="175">
-      <c r="B175" s="41"/>
+      <c r="B175" s="40"/>
     </row>
     <row r="176">
-      <c r="B176" s="41"/>
+      <c r="B176" s="40"/>
     </row>
     <row r="177">
-      <c r="B177" s="41"/>
+      <c r="B177" s="40"/>
     </row>
     <row r="178">
-      <c r="B178" s="41"/>
+      <c r="B178" s="40"/>
     </row>
     <row r="179">
-      <c r="B179" s="41"/>
+      <c r="B179" s="40"/>
     </row>
     <row r="180">
-      <c r="B180" s="41"/>
+      <c r="B180" s="40"/>
     </row>
     <row r="181">
-      <c r="B181" s="41"/>
+      <c r="B181" s="40"/>
     </row>
     <row r="182">
-      <c r="B182" s="41"/>
+      <c r="B182" s="40"/>
     </row>
     <row r="183">
-      <c r="B183" s="41"/>
+      <c r="B183" s="40"/>
     </row>
     <row r="184">
-      <c r="B184" s="41"/>
+      <c r="B184" s="40"/>
     </row>
     <row r="185">
-      <c r="B185" s="41"/>
+      <c r="B185" s="40"/>
     </row>
     <row r="186">
-      <c r="B186" s="41"/>
+      <c r="B186" s="40"/>
     </row>
     <row r="187">
-      <c r="B187" s="41"/>
+      <c r="B187" s="40"/>
     </row>
     <row r="188">
-      <c r="B188" s="41"/>
+      <c r="B188" s="40"/>
     </row>
     <row r="189">
-      <c r="B189" s="41"/>
+      <c r="B189" s="40"/>
     </row>
     <row r="190">
-      <c r="B190" s="41"/>
+      <c r="B190" s="40"/>
     </row>
     <row r="191">
-      <c r="B191" s="41"/>
+      <c r="B191" s="40"/>
     </row>
     <row r="192">
-      <c r="B192" s="41"/>
+      <c r="B192" s="40"/>
     </row>
     <row r="193">
-      <c r="B193" s="41"/>
+      <c r="B193" s="40"/>
     </row>
     <row r="194">
-      <c r="B194" s="41"/>
+      <c r="B194" s="40"/>
     </row>
     <row r="195">
-      <c r="B195" s="41"/>
+      <c r="B195" s="40"/>
     </row>
     <row r="196">
-      <c r="B196" s="41"/>
+      <c r="B196" s="40"/>
     </row>
     <row r="197">
-      <c r="B197" s="41"/>
+      <c r="B197" s="40"/>
     </row>
     <row r="198">
-      <c r="B198" s="41"/>
+      <c r="B198" s="40"/>
     </row>
     <row r="199">
-      <c r="B199" s="41"/>
+      <c r="B199" s="40"/>
     </row>
     <row r="200">
-      <c r="B200" s="41"/>
+      <c r="B200" s="40"/>
     </row>
     <row r="201">
-      <c r="B201" s="41"/>
+      <c r="B201" s="40"/>
     </row>
     <row r="202">
-      <c r="B202" s="41"/>
+      <c r="B202" s="40"/>
     </row>
     <row r="203">
-      <c r="B203" s="41"/>
+      <c r="B203" s="40"/>
     </row>
     <row r="204">
-      <c r="B204" s="41"/>
+      <c r="B204" s="40"/>
     </row>
     <row r="205">
-      <c r="B205" s="41"/>
+      <c r="B205" s="40"/>
     </row>
     <row r="206">
-      <c r="B206" s="41"/>
+      <c r="B206" s="40"/>
     </row>
     <row r="207">
-      <c r="B207" s="41"/>
+      <c r="B207" s="40"/>
     </row>
     <row r="208">
-      <c r="B208" s="41"/>
+      <c r="B208" s="40"/>
     </row>
     <row r="209">
-      <c r="B209" s="41"/>
+      <c r="B209" s="40"/>
     </row>
     <row r="210">
-      <c r="B210" s="41"/>
+      <c r="B210" s="40"/>
     </row>
     <row r="211">
-      <c r="B211" s="41"/>
+      <c r="B211" s="40"/>
     </row>
     <row r="212">
-      <c r="B212" s="41"/>
+      <c r="B212" s="40"/>
     </row>
     <row r="213">
-      <c r="B213" s="41"/>
+      <c r="B213" s="40"/>
     </row>
     <row r="214">
-      <c r="B214" s="41"/>
+      <c r="B214" s="40"/>
     </row>
     <row r="215">
-      <c r="B215" s="41"/>
+      <c r="B215" s="40"/>
     </row>
     <row r="216">
-      <c r="B216" s="41"/>
+      <c r="B216" s="40"/>
     </row>
     <row r="217">
-      <c r="B217" s="41"/>
+      <c r="B217" s="40"/>
     </row>
     <row r="218">
-      <c r="B218" s="41"/>
+      <c r="B218" s="40"/>
     </row>
     <row r="219">
-      <c r="B219" s="41"/>
+      <c r="B219" s="40"/>
     </row>
     <row r="220">
-      <c r="B220" s="41"/>
+      <c r="B220" s="40"/>
     </row>
     <row r="221">
-      <c r="B221" s="41"/>
+      <c r="B221" s="40"/>
     </row>
     <row r="222">
-      <c r="B222" s="41"/>
+      <c r="B222" s="40"/>
     </row>
     <row r="223">
-      <c r="B223" s="41"/>
+      <c r="B223" s="40"/>
     </row>
     <row r="224">
-      <c r="B224" s="41"/>
+      <c r="B224" s="40"/>
     </row>
     <row r="225">
-      <c r="B225" s="41"/>
+      <c r="B225" s="40"/>
     </row>
     <row r="226">
-      <c r="B226" s="41"/>
+      <c r="B226" s="40"/>
     </row>
     <row r="227">
-      <c r="B227" s="41"/>
+      <c r="B227" s="40"/>
     </row>
     <row r="228">
-      <c r="B228" s="41"/>
+      <c r="B228" s="40"/>
     </row>
     <row r="229">
-      <c r="B229" s="41"/>
+      <c r="B229" s="40"/>
     </row>
     <row r="230">
-      <c r="B230" s="41"/>
+      <c r="B230" s="40"/>
     </row>
     <row r="231">
-      <c r="B231" s="41"/>
+      <c r="B231" s="40"/>
     </row>
     <row r="232">
-      <c r="B232" s="41"/>
+      <c r="B232" s="40"/>
     </row>
     <row r="233">
-      <c r="B233" s="41"/>
+      <c r="B233" s="40"/>
     </row>
     <row r="234">
-      <c r="B234" s="41"/>
+      <c r="B234" s="40"/>
     </row>
     <row r="235">
-      <c r="B235" s="41"/>
+      <c r="B235" s="40"/>
     </row>
     <row r="236">
-      <c r="B236" s="41"/>
+      <c r="B236" s="40"/>
     </row>
     <row r="237">
-      <c r="B237" s="41"/>
+      <c r="B237" s="40"/>
     </row>
     <row r="238">
-      <c r="B238" s="41"/>
+      <c r="B238" s="40"/>
     </row>
     <row r="239">
-      <c r="B239" s="41"/>
+      <c r="B239" s="40"/>
     </row>
     <row r="240">
-      <c r="B240" s="41"/>
+      <c r="B240" s="40"/>
     </row>
     <row r="241">
-      <c r="B241" s="41"/>
+      <c r="B241" s="40"/>
     </row>
     <row r="242">
-      <c r="B242" s="41"/>
+      <c r="B242" s="40"/>
     </row>
     <row r="243">
-      <c r="B243" s="41"/>
+      <c r="B243" s="40"/>
     </row>
     <row r="244">
-      <c r="B244" s="41"/>
+      <c r="B244" s="40"/>
     </row>
     <row r="245">
-      <c r="B245" s="41"/>
+      <c r="B245" s="40"/>
     </row>
     <row r="246">
-      <c r="B246" s="41"/>
+      <c r="B246" s="40"/>
     </row>
     <row r="247">
-      <c r="B247" s="41"/>
+      <c r="B247" s="40"/>
     </row>
     <row r="248">
-      <c r="B248" s="41"/>
+      <c r="B248" s="40"/>
     </row>
     <row r="249">
-      <c r="B249" s="41"/>
+      <c r="B249" s="40"/>
     </row>
     <row r="250">
-      <c r="B250" s="41"/>
+      <c r="B250" s="40"/>
     </row>
     <row r="251">
-      <c r="B251" s="41"/>
+      <c r="B251" s="40"/>
     </row>
     <row r="252">
-      <c r="B252" s="41"/>
+      <c r="B252" s="40"/>
     </row>
     <row r="253">
-      <c r="B253" s="41"/>
+      <c r="B253" s="40"/>
     </row>
     <row r="254">
-      <c r="B254" s="41"/>
+      <c r="B254" s="40"/>
     </row>
     <row r="255">
-      <c r="B255" s="41"/>
+      <c r="B255" s="40"/>
     </row>
     <row r="256">
-      <c r="B256" s="41"/>
+      <c r="B256" s="40"/>
     </row>
     <row r="257">
-      <c r="B257" s="41"/>
+      <c r="B257" s="40"/>
     </row>
     <row r="258">
-      <c r="B258" s="41"/>
+      <c r="B258" s="40"/>
     </row>
     <row r="259">
-      <c r="B259" s="41"/>
+      <c r="B259" s="40"/>
     </row>
     <row r="260">
-      <c r="B260" s="41"/>
+      <c r="B260" s="40"/>
     </row>
     <row r="261">
-      <c r="B261" s="41"/>
+      <c r="B261" s="40"/>
     </row>
     <row r="262">
-      <c r="B262" s="41"/>
+      <c r="B262" s="40"/>
     </row>
     <row r="263">
-      <c r="B263" s="41"/>
+      <c r="B263" s="40"/>
     </row>
     <row r="264">
-      <c r="B264" s="41"/>
+      <c r="B264" s="40"/>
     </row>
     <row r="265">
-      <c r="B265" s="41"/>
+      <c r="B265" s="40"/>
     </row>
     <row r="266">
-      <c r="B266" s="41"/>
+      <c r="B266" s="40"/>
     </row>
     <row r="267">
-      <c r="B267" s="41"/>
+      <c r="B267" s="40"/>
     </row>
     <row r="268">
-      <c r="B268" s="41"/>
+      <c r="B268" s="40"/>
     </row>
     <row r="269">
-      <c r="B269" s="41"/>
+      <c r="B269" s="40"/>
     </row>
     <row r="270">
-      <c r="B270" s="41"/>
+      <c r="B270" s="40"/>
     </row>
     <row r="271">
-      <c r="B271" s="41"/>
+      <c r="B271" s="40"/>
     </row>
     <row r="272">
-      <c r="B272" s="41"/>
+      <c r="B272" s="40"/>
     </row>
     <row r="273">
-      <c r="B273" s="41"/>
+      <c r="B273" s="40"/>
     </row>
     <row r="274">
-      <c r="B274" s="41"/>
+      <c r="B274" s="40"/>
     </row>
     <row r="275">
-      <c r="B275" s="41"/>
+      <c r="B275" s="40"/>
     </row>
     <row r="276">
-      <c r="B276" s="41"/>
+      <c r="B276" s="40"/>
     </row>
     <row r="277">
-      <c r="B277" s="41"/>
+      <c r="B277" s="40"/>
     </row>
     <row r="278">
-      <c r="B278" s="41"/>
+      <c r="B278" s="40"/>
     </row>
     <row r="279">
-      <c r="B279" s="41"/>
+      <c r="B279" s="40"/>
     </row>
     <row r="280">
-      <c r="B280" s="41"/>
+      <c r="B280" s="40"/>
     </row>
     <row r="281">
-      <c r="B281" s="41"/>
+      <c r="B281" s="40"/>
     </row>
     <row r="282">
-      <c r="B282" s="41"/>
+      <c r="B282" s="40"/>
     </row>
     <row r="283">
-      <c r="B283" s="41"/>
+      <c r="B283" s="40"/>
     </row>
     <row r="284">
-      <c r="B284" s="41"/>
+      <c r="B284" s="40"/>
     </row>
     <row r="285">
-      <c r="B285" s="41"/>
+      <c r="B285" s="40"/>
     </row>
     <row r="286">
-      <c r="B286" s="41"/>
+      <c r="B286" s="40"/>
     </row>
     <row r="287">
-      <c r="B287" s="41"/>
+      <c r="B287" s="40"/>
     </row>
     <row r="288">
-      <c r="B288" s="41"/>
+      <c r="B288" s="40"/>
     </row>
     <row r="289">
-      <c r="B289" s="41"/>
+      <c r="B289" s="40"/>
     </row>
     <row r="290">
-      <c r="B290" s="41"/>
+      <c r="B290" s="40"/>
     </row>
     <row r="291">
-      <c r="B291" s="41"/>
+      <c r="B291" s="40"/>
     </row>
     <row r="292">
-      <c r="B292" s="41"/>
+      <c r="B292" s="40"/>
     </row>
     <row r="293">
-      <c r="B293" s="41"/>
+      <c r="B293" s="40"/>
     </row>
     <row r="294">
-      <c r="B294" s="41"/>
+      <c r="B294" s="40"/>
     </row>
     <row r="295">
-      <c r="B295" s="41"/>
+      <c r="B295" s="40"/>
     </row>
     <row r="296">
-      <c r="B296" s="41"/>
+      <c r="B296" s="40"/>
     </row>
     <row r="297">
-      <c r="B297" s="41"/>
+      <c r="B297" s="40"/>
     </row>
     <row r="298">
-      <c r="B298" s="41"/>
+      <c r="B298" s="40"/>
     </row>
     <row r="299">
-      <c r="B299" s="41"/>
+      <c r="B299" s="40"/>
     </row>
     <row r="300">
-      <c r="B300" s="41"/>
+      <c r="B300" s="40"/>
     </row>
     <row r="301">
-      <c r="B301" s="41"/>
+      <c r="B301" s="40"/>
     </row>
     <row r="302">
-      <c r="B302" s="41"/>
+      <c r="B302" s="40"/>
     </row>
     <row r="303">
-      <c r="B303" s="41"/>
+      <c r="B303" s="40"/>
     </row>
     <row r="304">
-      <c r="B304" s="41"/>
+      <c r="B304" s="40"/>
     </row>
     <row r="305">
-      <c r="B305" s="41"/>
+      <c r="B305" s="40"/>
     </row>
     <row r="306">
-      <c r="B306" s="41"/>
+      <c r="B306" s="40"/>
     </row>
     <row r="307">
-      <c r="B307" s="41"/>
+      <c r="B307" s="40"/>
     </row>
     <row r="308">
-      <c r="B308" s="41"/>
+      <c r="B308" s="40"/>
     </row>
     <row r="309">
-      <c r="B309" s="41"/>
+      <c r="B309" s="40"/>
     </row>
     <row r="310">
-      <c r="B310" s="41"/>
+      <c r="B310" s="40"/>
     </row>
     <row r="311">
-      <c r="B311" s="41"/>
+      <c r="B311" s="40"/>
     </row>
     <row r="312">
-      <c r="B312" s="41"/>
+      <c r="B312" s="40"/>
     </row>
     <row r="313">
-      <c r="B313" s="41"/>
+      <c r="B313" s="40"/>
     </row>
     <row r="314">
-      <c r="B314" s="41"/>
+      <c r="B314" s="40"/>
     </row>
     <row r="315">
-      <c r="B315" s="41"/>
+      <c r="B315" s="40"/>
     </row>
     <row r="316">
-      <c r="B316" s="41"/>
+      <c r="B316" s="40"/>
     </row>
     <row r="317">
-      <c r="B317" s="41"/>
+      <c r="B317" s="40"/>
     </row>
     <row r="318">
-      <c r="B318" s="41"/>
+      <c r="B318" s="40"/>
     </row>
     <row r="319">
-      <c r="B319" s="41"/>
+      <c r="B319" s="40"/>
     </row>
     <row r="320">
-      <c r="B320" s="41"/>
+      <c r="B320" s="40"/>
     </row>
     <row r="321">
-      <c r="B321" s="41"/>
+      <c r="B321" s="40"/>
     </row>
     <row r="322">
-      <c r="B322" s="41"/>
+      <c r="B322" s="40"/>
     </row>
     <row r="323">
-      <c r="B323" s="41"/>
+      <c r="B323" s="40"/>
     </row>
     <row r="324">
-      <c r="B324" s="41"/>
+      <c r="B324" s="40"/>
     </row>
     <row r="325">
-      <c r="B325" s="41"/>
+      <c r="B325" s="40"/>
     </row>
     <row r="326">
-      <c r="B326" s="41"/>
+      <c r="B326" s="40"/>
     </row>
     <row r="327">
-      <c r="B327" s="41"/>
+      <c r="B327" s="40"/>
     </row>
     <row r="328">
-      <c r="B328" s="41"/>
+      <c r="B328" s="40"/>
     </row>
     <row r="329">
-      <c r="B329" s="41"/>
+      <c r="B329" s="40"/>
     </row>
     <row r="330">
-      <c r="B330" s="41"/>
+      <c r="B330" s="40"/>
     </row>
     <row r="331">
-      <c r="B331" s="41"/>
+      <c r="B331" s="40"/>
     </row>
     <row r="332">
-      <c r="B332" s="41"/>
+      <c r="B332" s="40"/>
     </row>
     <row r="333">
-      <c r="B333" s="41"/>
+      <c r="B333" s="40"/>
     </row>
     <row r="334">
-      <c r="B334" s="41"/>
+      <c r="B334" s="40"/>
     </row>
     <row r="335">
-      <c r="B335" s="41"/>
+      <c r="B335" s="40"/>
     </row>
     <row r="336">
-      <c r="B336" s="41"/>
+      <c r="B336" s="40"/>
     </row>
     <row r="337">
-      <c r="B337" s="41"/>
+      <c r="B337" s="40"/>
     </row>
     <row r="338">
-      <c r="B338" s="41"/>
+      <c r="B338" s="40"/>
     </row>
     <row r="339">
-      <c r="B339" s="41"/>
+      <c r="B339" s="40"/>
     </row>
     <row r="340">
-      <c r="B340" s="41"/>
+      <c r="B340" s="40"/>
     </row>
     <row r="341">
-      <c r="B341" s="41"/>
+      <c r="B341" s="40"/>
     </row>
     <row r="342">
-      <c r="B342" s="41"/>
+      <c r="B342" s="40"/>
     </row>
     <row r="343">
-      <c r="B343" s="41"/>
+      <c r="B343" s="40"/>
     </row>
     <row r="344">
-      <c r="B344" s="41"/>
+      <c r="B344" s="40"/>
     </row>
     <row r="345">
-      <c r="B345" s="41"/>
+      <c r="B345" s="40"/>
     </row>
     <row r="346">
-      <c r="B346" s="41"/>
+      <c r="B346" s="40"/>
     </row>
     <row r="347">
-      <c r="B347" s="41"/>
+      <c r="B347" s="40"/>
     </row>
     <row r="348">
-      <c r="B348" s="41"/>
+      <c r="B348" s="40"/>
     </row>
     <row r="349">
-      <c r="B349" s="41"/>
+      <c r="B349" s="40"/>
     </row>
     <row r="350">
-      <c r="B350" s="41"/>
+      <c r="B350" s="40"/>
     </row>
     <row r="351">
-      <c r="B351" s="41"/>
+      <c r="B351" s="40"/>
     </row>
     <row r="352">
-      <c r="B352" s="41"/>
+      <c r="B352" s="40"/>
     </row>
     <row r="353">
-      <c r="B353" s="41"/>
+      <c r="B353" s="40"/>
     </row>
     <row r="354">
-      <c r="B354" s="41"/>
+      <c r="B354" s="40"/>
     </row>
     <row r="355">
-      <c r="B355" s="41"/>
+      <c r="B355" s="40"/>
     </row>
     <row r="356">
-      <c r="B356" s="41"/>
+      <c r="B356" s="40"/>
     </row>
     <row r="357">
-      <c r="B357" s="41"/>
+      <c r="B357" s="40"/>
     </row>
     <row r="358">
-      <c r="B358" s="41"/>
+      <c r="B358" s="40"/>
     </row>
     <row r="359">
-      <c r="B359" s="41"/>
+      <c r="B359" s="40"/>
     </row>
     <row r="360">
-      <c r="B360" s="41"/>
+      <c r="B360" s="40"/>
     </row>
     <row r="361">
-      <c r="B361" s="41"/>
+      <c r="B361" s="40"/>
     </row>
     <row r="362">
-      <c r="B362" s="41"/>
+      <c r="B362" s="40"/>
     </row>
     <row r="363">
-      <c r="B363" s="41"/>
+      <c r="B363" s="40"/>
     </row>
     <row r="364">
-      <c r="B364" s="41"/>
+      <c r="B364" s="40"/>
     </row>
     <row r="365">
-      <c r="B365" s="41"/>
+      <c r="B365" s="40"/>
     </row>
     <row r="366">
-      <c r="B366" s="41"/>
+      <c r="B366" s="40"/>
     </row>
     <row r="367">
-      <c r="B367" s="41"/>
+      <c r="B367" s="40"/>
     </row>
     <row r="368">
-      <c r="B368" s="41"/>
+      <c r="B368" s="40"/>
     </row>
     <row r="369">
-      <c r="B369" s="41"/>
+      <c r="B369" s="40"/>
     </row>
     <row r="370">
-      <c r="B370" s="41"/>
+      <c r="B370" s="40"/>
     </row>
     <row r="371">
-      <c r="B371" s="41"/>
+      <c r="B371" s="40"/>
     </row>
     <row r="372">
-      <c r="B372" s="41"/>
+      <c r="B372" s="40"/>
     </row>
     <row r="373">
-      <c r="B373" s="41"/>
+      <c r="B373" s="40"/>
     </row>
     <row r="374">
-      <c r="B374" s="41"/>
+      <c r="B374" s="40"/>
     </row>
     <row r="375">
-      <c r="B375" s="41"/>
+      <c r="B375" s="40"/>
     </row>
     <row r="376">
-      <c r="B376" s="41"/>
+      <c r="B376" s="40"/>
     </row>
     <row r="377">
-      <c r="B377" s="41"/>
+      <c r="B377" s="40"/>
     </row>
     <row r="378">
-      <c r="B378" s="41"/>
+      <c r="B378" s="40"/>
     </row>
     <row r="379">
-      <c r="B379" s="41"/>
+      <c r="B379" s="40"/>
     </row>
     <row r="380">
-      <c r="B380" s="41"/>
+      <c r="B380" s="40"/>
     </row>
     <row r="381">
-      <c r="B381" s="41"/>
+      <c r="B381" s="40"/>
     </row>
     <row r="382">
-      <c r="B382" s="41"/>
+      <c r="B382" s="40"/>
     </row>
     <row r="383">
-      <c r="B383" s="41"/>
+      <c r="B383" s="40"/>
     </row>
     <row r="384">
-      <c r="B384" s="41"/>
+      <c r="B384" s="40"/>
     </row>
     <row r="385">
-      <c r="B385" s="41"/>
+      <c r="B385" s="40"/>
     </row>
     <row r="386">
-      <c r="B386" s="41"/>
+      <c r="B386" s="40"/>
     </row>
     <row r="387">
-      <c r="B387" s="41"/>
+      <c r="B387" s="40"/>
     </row>
     <row r="388">
-      <c r="B388" s="41"/>
+      <c r="B388" s="40"/>
     </row>
     <row r="389">
-      <c r="B389" s="41"/>
+      <c r="B389" s="40"/>
     </row>
     <row r="390">
-      <c r="B390" s="41"/>
+      <c r="B390" s="40"/>
     </row>
     <row r="391">
-      <c r="B391" s="41"/>
+      <c r="B391" s="40"/>
     </row>
     <row r="392">
-      <c r="B392" s="41"/>
+      <c r="B392" s="40"/>
     </row>
     <row r="393">
-      <c r="B393" s="41"/>
+      <c r="B393" s="40"/>
     </row>
     <row r="394">
-      <c r="B394" s="41"/>
+      <c r="B394" s="40"/>
     </row>
     <row r="395">
-      <c r="B395" s="41"/>
+      <c r="B395" s="40"/>
     </row>
     <row r="396">
-      <c r="B396" s="41"/>
+      <c r="B396" s="40"/>
     </row>
     <row r="397">
-      <c r="B397" s="41"/>
+      <c r="B397" s="40"/>
     </row>
     <row r="398">
-      <c r="B398" s="41"/>
+      <c r="B398" s="40"/>
     </row>
     <row r="399">
-      <c r="B399" s="41"/>
+      <c r="B399" s="40"/>
     </row>
     <row r="400">
-      <c r="B400" s="41"/>
+      <c r="B400" s="40"/>
     </row>
     <row r="401">
-      <c r="B401" s="41"/>
+      <c r="B401" s="40"/>
     </row>
     <row r="402">
-      <c r="B402" s="41"/>
+      <c r="B402" s="40"/>
     </row>
     <row r="403">
-      <c r="B403" s="41"/>
+      <c r="B403" s="40"/>
     </row>
     <row r="404">
-      <c r="B404" s="41"/>
+      <c r="B404" s="40"/>
     </row>
     <row r="405">
-      <c r="B405" s="41"/>
+      <c r="B405" s="40"/>
     </row>
     <row r="406">
-      <c r="B406" s="41"/>
+      <c r="B406" s="40"/>
     </row>
     <row r="407">
-      <c r="B407" s="41"/>
+      <c r="B407" s="40"/>
     </row>
     <row r="408">
-      <c r="B408" s="41"/>
+      <c r="B408" s="40"/>
     </row>
     <row r="409">
-      <c r="B409" s="41"/>
+      <c r="B409" s="40"/>
     </row>
     <row r="410">
-      <c r="B410" s="41"/>
+      <c r="B410" s="40"/>
     </row>
     <row r="411">
-      <c r="B411" s="41"/>
+      <c r="B411" s="40"/>
     </row>
     <row r="412">
-      <c r="B412" s="41"/>
+      <c r="B412" s="40"/>
     </row>
     <row r="413">
-      <c r="B413" s="41"/>
+      <c r="B413" s="40"/>
     </row>
     <row r="414">
-      <c r="B414" s="41"/>
+      <c r="B414" s="40"/>
     </row>
     <row r="415">
-      <c r="B415" s="41"/>
+      <c r="B415" s="40"/>
     </row>
     <row r="416">
-      <c r="B416" s="41"/>
+      <c r="B416" s="40"/>
     </row>
     <row r="417">
-      <c r="B417" s="41"/>
+      <c r="B417" s="40"/>
     </row>
     <row r="418">
-      <c r="B418" s="41"/>
+      <c r="B418" s="40"/>
     </row>
     <row r="419">
-      <c r="B419" s="41"/>
+      <c r="B419" s="40"/>
     </row>
     <row r="420">
-      <c r="B420" s="41"/>
+      <c r="B420" s="40"/>
     </row>
     <row r="421">
-      <c r="B421" s="41"/>
+      <c r="B421" s="40"/>
     </row>
     <row r="422">
-      <c r="B422" s="41"/>
+      <c r="B422" s="40"/>
     </row>
     <row r="423">
-      <c r="B423" s="41"/>
+      <c r="B423" s="40"/>
     </row>
     <row r="424">
-      <c r="B424" s="41"/>
+      <c r="B424" s="40"/>
     </row>
     <row r="425">
-      <c r="B425" s="41"/>
+      <c r="B425" s="40"/>
     </row>
     <row r="426">
-      <c r="B426" s="41"/>
+      <c r="B426" s="40"/>
     </row>
     <row r="427">
-      <c r="B427" s="41"/>
+      <c r="B427" s="40"/>
     </row>
     <row r="428">
-      <c r="B428" s="41"/>
+      <c r="B428" s="40"/>
     </row>
     <row r="429">
-      <c r="B429" s="41"/>
+      <c r="B429" s="40"/>
     </row>
     <row r="430">
-      <c r="B430" s="41"/>
+      <c r="B430" s="40"/>
     </row>
     <row r="431">
-      <c r="B431" s="41"/>
+      <c r="B431" s="40"/>
     </row>
     <row r="432">
-      <c r="B432" s="41"/>
+      <c r="B432" s="40"/>
     </row>
     <row r="433">
-      <c r="B433" s="41"/>
+      <c r="B433" s="40"/>
     </row>
     <row r="434">
-      <c r="B434" s="41"/>
+      <c r="B434" s="40"/>
     </row>
     <row r="435">
-      <c r="B435" s="41"/>
+      <c r="B435" s="40"/>
     </row>
     <row r="436">
-      <c r="B436" s="41"/>
+      <c r="B436" s="40"/>
     </row>
     <row r="437">
-      <c r="B437" s="41"/>
+      <c r="B437" s="40"/>
     </row>
     <row r="438">
-      <c r="B438" s="41"/>
+      <c r="B438" s="40"/>
     </row>
     <row r="439">
-      <c r="B439" s="41"/>
+      <c r="B439" s="40"/>
     </row>
     <row r="440">
-      <c r="B440" s="41"/>
+      <c r="B440" s="40"/>
     </row>
     <row r="441">
-      <c r="B441" s="41"/>
+      <c r="B441" s="40"/>
     </row>
     <row r="442">
-      <c r="B442" s="41"/>
+      <c r="B442" s="40"/>
     </row>
     <row r="443">
-      <c r="B443" s="41"/>
+      <c r="B443" s="40"/>
     </row>
     <row r="444">
-      <c r="B444" s="41"/>
+      <c r="B444" s="40"/>
     </row>
     <row r="445">
-      <c r="B445" s="41"/>
+      <c r="B445" s="40"/>
     </row>
     <row r="446">
-      <c r="B446" s="41"/>
+      <c r="B446" s="40"/>
     </row>
     <row r="447">
-      <c r="B447" s="41"/>
+      <c r="B447" s="40"/>
     </row>
     <row r="448">
-      <c r="B448" s="41"/>
+      <c r="B448" s="40"/>
     </row>
     <row r="449">
-      <c r="B449" s="41"/>
+      <c r="B449" s="40"/>
     </row>
     <row r="450">
-      <c r="B450" s="41"/>
+      <c r="B450" s="40"/>
     </row>
     <row r="451">
-      <c r="B451" s="41"/>
+      <c r="B451" s="40"/>
     </row>
     <row r="452">
-      <c r="B452" s="41"/>
+      <c r="B452" s="40"/>
     </row>
     <row r="453">
-      <c r="B453" s="41"/>
+      <c r="B453" s="40"/>
     </row>
     <row r="454">
-      <c r="B454" s="41"/>
+      <c r="B454" s="40"/>
     </row>
     <row r="455">
-      <c r="B455" s="41"/>
+      <c r="B455" s="40"/>
     </row>
     <row r="456">
-      <c r="B456" s="41"/>
+      <c r="B456" s="40"/>
     </row>
     <row r="457">
-      <c r="B457" s="41"/>
+      <c r="B457" s="40"/>
     </row>
     <row r="458">
-      <c r="B458" s="41"/>
+      <c r="B458" s="40"/>
     </row>
     <row r="459">
-      <c r="B459" s="41"/>
+      <c r="B459" s="40"/>
     </row>
     <row r="460">
-      <c r="B460" s="41"/>
+      <c r="B460" s="40"/>
     </row>
     <row r="461">
-      <c r="B461" s="41"/>
+      <c r="B461" s="40"/>
     </row>
     <row r="462">
-      <c r="B462" s="41"/>
+      <c r="B462" s="40"/>
     </row>
     <row r="463">
-      <c r="B463" s="41"/>
+      <c r="B463" s="40"/>
     </row>
     <row r="464">
-      <c r="B464" s="41"/>
+      <c r="B464" s="40"/>
     </row>
     <row r="465">
-      <c r="B465" s="41"/>
+      <c r="B465" s="40"/>
     </row>
     <row r="466">
-      <c r="B466" s="41"/>
+      <c r="B466" s="40"/>
     </row>
     <row r="467">
-      <c r="B467" s="41"/>
+      <c r="B467" s="40"/>
     </row>
     <row r="468">
-      <c r="B468" s="41"/>
+      <c r="B468" s="40"/>
     </row>
     <row r="469">
-      <c r="B469" s="41"/>
+      <c r="B469" s="40"/>
     </row>
     <row r="470">
-      <c r="B470" s="41"/>
+      <c r="B470" s="40"/>
     </row>
     <row r="471">
-      <c r="B471" s="41"/>
+      <c r="B471" s="40"/>
     </row>
     <row r="472">
-      <c r="B472" s="41"/>
+      <c r="B472" s="40"/>
     </row>
     <row r="473">
-      <c r="B473" s="41"/>
+      <c r="B473" s="40"/>
     </row>
     <row r="474">
-      <c r="B474" s="41"/>
+      <c r="B474" s="40"/>
     </row>
     <row r="475">
-      <c r="B475" s="41"/>
+      <c r="B475" s="40"/>
     </row>
     <row r="476">
-      <c r="B476" s="41"/>
+      <c r="B476" s="40"/>
     </row>
     <row r="477">
-      <c r="B477" s="41"/>
+      <c r="B477" s="40"/>
     </row>
     <row r="478">
-      <c r="B478" s="41"/>
+      <c r="B478" s="40"/>
     </row>
     <row r="479">
-      <c r="B479" s="41"/>
+      <c r="B479" s="40"/>
     </row>
     <row r="480">
-      <c r="B480" s="41"/>
+      <c r="B480" s="40"/>
     </row>
     <row r="481">
-      <c r="B481" s="41"/>
+      <c r="B481" s="40"/>
     </row>
     <row r="482">
-      <c r="B482" s="41"/>
+      <c r="B482" s="40"/>
     </row>
     <row r="483">
-      <c r="B483" s="41"/>
+      <c r="B483" s="40"/>
     </row>
     <row r="484">
-      <c r="B484" s="41"/>
+      <c r="B484" s="40"/>
     </row>
     <row r="485">
-      <c r="B485" s="41"/>
+      <c r="B485" s="40"/>
     </row>
     <row r="486">
-      <c r="B486" s="41"/>
+      <c r="B486" s="40"/>
     </row>
     <row r="487">
-      <c r="B487" s="41"/>
+      <c r="B487" s="40"/>
     </row>
     <row r="488">
-      <c r="B488" s="41"/>
+      <c r="B488" s="40"/>
     </row>
     <row r="489">
-      <c r="B489" s="41"/>
+      <c r="B489" s="40"/>
     </row>
     <row r="490">
-      <c r="B490" s="41"/>
+      <c r="B490" s="40"/>
     </row>
     <row r="491">
-      <c r="B491" s="41"/>
+      <c r="B491" s="40"/>
     </row>
     <row r="492">
-      <c r="B492" s="41"/>
+      <c r="B492" s="40"/>
     </row>
     <row r="493">
-      <c r="B493" s="41"/>
+      <c r="B493" s="40"/>
     </row>
     <row r="494">
-      <c r="B494" s="41"/>
+      <c r="B494" s="40"/>
     </row>
     <row r="495">
-      <c r="B495" s="41"/>
+      <c r="B495" s="40"/>
     </row>
     <row r="496">
-      <c r="B496" s="41"/>
+      <c r="B496" s="40"/>
     </row>
     <row r="497">
-      <c r="B497" s="41"/>
+      <c r="B497" s="40"/>
     </row>
     <row r="498">
-      <c r="B498" s="41"/>
+      <c r="B498" s="40"/>
     </row>
     <row r="499">
-      <c r="B499" s="41"/>
+      <c r="B499" s="40"/>
     </row>
     <row r="500">
-      <c r="B500" s="41"/>
+      <c r="B500" s="40"/>
     </row>
     <row r="501">
-      <c r="B501" s="41"/>
+      <c r="B501" s="40"/>
     </row>
     <row r="502">
-      <c r="B502" s="41"/>
+      <c r="B502" s="40"/>
     </row>
     <row r="503">
-      <c r="B503" s="41"/>
+      <c r="B503" s="40"/>
     </row>
     <row r="504">
-      <c r="B504" s="41"/>
+      <c r="B504" s="40"/>
     </row>
     <row r="505">
-      <c r="B505" s="41"/>
+      <c r="B505" s="40"/>
     </row>
     <row r="506">
-      <c r="B506" s="41"/>
+      <c r="B506" s="40"/>
     </row>
     <row r="507">
-      <c r="B507" s="41"/>
+      <c r="B507" s="40"/>
     </row>
     <row r="508">
-      <c r="B508" s="41"/>
+      <c r="B508" s="40"/>
     </row>
     <row r="509">
-      <c r="B509" s="41"/>
+      <c r="B509" s="40"/>
     </row>
     <row r="510">
-      <c r="B510" s="41"/>
+      <c r="B510" s="40"/>
     </row>
     <row r="511">
-      <c r="B511" s="41"/>
+      <c r="B511" s="40"/>
     </row>
     <row r="512">
-      <c r="B512" s="41"/>
+      <c r="B512" s="40"/>
     </row>
     <row r="513">
-      <c r="B513" s="41"/>
+      <c r="B513" s="40"/>
     </row>
     <row r="514">
-      <c r="B514" s="41"/>
+      <c r="B514" s="40"/>
     </row>
     <row r="515">
-      <c r="B515" s="41"/>
+      <c r="B515" s="40"/>
     </row>
     <row r="516">
-      <c r="B516" s="41"/>
+      <c r="B516" s="40"/>
     </row>
     <row r="517">
-      <c r="B517" s="41"/>
+      <c r="B517" s="40"/>
     </row>
     <row r="518">
-      <c r="B518" s="41"/>
+      <c r="B518" s="40"/>
     </row>
     <row r="519">
-      <c r="B519" s="41"/>
+      <c r="B519" s="40"/>
     </row>
     <row r="520">
-      <c r="B520" s="41"/>
+      <c r="B520" s="40"/>
     </row>
     <row r="521">
-      <c r="B521" s="41"/>
+      <c r="B521" s="40"/>
     </row>
     <row r="522">
-      <c r="B522" s="41"/>
+      <c r="B522" s="40"/>
     </row>
     <row r="523">
-      <c r="B523" s="41"/>
+      <c r="B523" s="40"/>
     </row>
     <row r="524">
-      <c r="B524" s="41"/>
+      <c r="B524" s="40"/>
     </row>
     <row r="525">
-      <c r="B525" s="41"/>
+      <c r="B525" s="40"/>
     </row>
     <row r="526">
-      <c r="B526" s="41"/>
+      <c r="B526" s="40"/>
     </row>
     <row r="527">
-      <c r="B527" s="41"/>
+      <c r="B527" s="40"/>
     </row>
     <row r="528">
-      <c r="B528" s="41"/>
+      <c r="B528" s="40"/>
     </row>
     <row r="529">
-      <c r="B529" s="41"/>
+      <c r="B529" s="40"/>
     </row>
     <row r="530">
-      <c r="B530" s="41"/>
+      <c r="B530" s="40"/>
     </row>
     <row r="531">
-      <c r="B531" s="41"/>
+      <c r="B531" s="40"/>
     </row>
     <row r="532">
-      <c r="B532" s="41"/>
+      <c r="B532" s="40"/>
     </row>
     <row r="533">
-      <c r="B533" s="41"/>
+      <c r="B533" s="40"/>
     </row>
     <row r="534">
-      <c r="B534" s="41"/>
+      <c r="B534" s="40"/>
     </row>
     <row r="535">
-      <c r="B535" s="41"/>
+      <c r="B535" s="40"/>
     </row>
     <row r="536">
-      <c r="B536" s="41"/>
+      <c r="B536" s="40"/>
     </row>
     <row r="537">
-      <c r="B537" s="41"/>
+      <c r="B537" s="40"/>
     </row>
     <row r="538">
-      <c r="B538" s="41"/>
+      <c r="B538" s="40"/>
     </row>
     <row r="539">
-      <c r="B539" s="41"/>
+      <c r="B539" s="40"/>
     </row>
     <row r="540">
-      <c r="B540" s="41"/>
+      <c r="B540" s="40"/>
     </row>
     <row r="541">
-      <c r="B541" s="41"/>
+      <c r="B541" s="40"/>
     </row>
     <row r="542">
-      <c r="B542" s="41"/>
+      <c r="B542" s="40"/>
     </row>
     <row r="543">
-      <c r="B543" s="41"/>
+      <c r="B543" s="40"/>
     </row>
     <row r="544">
-      <c r="B544" s="41"/>
+      <c r="B544" s="40"/>
     </row>
     <row r="545">
-      <c r="B545" s="41"/>
+      <c r="B545" s="40"/>
     </row>
     <row r="546">
-      <c r="B546" s="41"/>
+      <c r="B546" s="40"/>
     </row>
     <row r="547">
-      <c r="B547" s="41"/>
+      <c r="B547" s="40"/>
     </row>
     <row r="548">
-      <c r="B548" s="41"/>
+      <c r="B548" s="40"/>
     </row>
     <row r="549">
-      <c r="B549" s="41"/>
+      <c r="B549" s="40"/>
     </row>
     <row r="550">
-      <c r="B550" s="41"/>
+      <c r="B550" s="40"/>
     </row>
     <row r="551">
-      <c r="B551" s="41"/>
+      <c r="B551" s="40"/>
     </row>
     <row r="552">
-      <c r="B552" s="41"/>
+      <c r="B552" s="40"/>
     </row>
     <row r="553">
-      <c r="B553" s="41"/>
+      <c r="B553" s="40"/>
     </row>
     <row r="554">
-      <c r="B554" s="41"/>
+      <c r="B554" s="40"/>
     </row>
     <row r="555">
-      <c r="B555" s="41"/>
+      <c r="B555" s="40"/>
     </row>
     <row r="556">
-      <c r="B556" s="41"/>
+      <c r="B556" s="40"/>
     </row>
     <row r="557">
-      <c r="B557" s="41"/>
+      <c r="B557" s="40"/>
     </row>
     <row r="558">
-      <c r="B558" s="41"/>
+      <c r="B558" s="40"/>
     </row>
     <row r="559">
-      <c r="B559" s="41"/>
+      <c r="B559" s="40"/>
     </row>
     <row r="560">
-      <c r="B560" s="41"/>
+      <c r="B560" s="40"/>
     </row>
     <row r="561">
-      <c r="B561" s="41"/>
+      <c r="B561" s="40"/>
     </row>
     <row r="562">
-      <c r="B562" s="41"/>
+      <c r="B562" s="40"/>
     </row>
     <row r="563">
-      <c r="B563" s="41"/>
+      <c r="B563" s="40"/>
     </row>
     <row r="564">
-      <c r="B564" s="41"/>
+      <c r="B564" s="40"/>
     </row>
     <row r="565">
-      <c r="B565" s="41"/>
+      <c r="B565" s="40"/>
     </row>
     <row r="566">
-      <c r="B566" s="41"/>
+      <c r="B566" s="40"/>
     </row>
     <row r="567">
-      <c r="B567" s="41"/>
+      <c r="B567" s="40"/>
     </row>
     <row r="568">
-      <c r="B568" s="41"/>
+      <c r="B568" s="40"/>
     </row>
     <row r="569">
-      <c r="B569" s="41"/>
+      <c r="B569" s="40"/>
     </row>
     <row r="570">
-      <c r="B570" s="41"/>
+      <c r="B570" s="40"/>
     </row>
     <row r="571">
-      <c r="B571" s="41"/>
+      <c r="B571" s="40"/>
     </row>
     <row r="572">
-      <c r="B572" s="41"/>
+      <c r="B572" s="40"/>
     </row>
     <row r="573">
-      <c r="B573" s="41"/>
+      <c r="B573" s="40"/>
     </row>
     <row r="574">
-      <c r="B574" s="41"/>
+      <c r="B574" s="40"/>
     </row>
     <row r="575">
-      <c r="B575" s="41"/>
+      <c r="B575" s="40"/>
     </row>
     <row r="576">
-      <c r="B576" s="41"/>
+      <c r="B576" s="40"/>
     </row>
     <row r="577">
-      <c r="B577" s="41"/>
+      <c r="B577" s="40"/>
     </row>
     <row r="578">
-      <c r="B578" s="41"/>
+      <c r="B578" s="40"/>
     </row>
     <row r="579">
-      <c r="B579" s="41"/>
+      <c r="B579" s="40"/>
     </row>
     <row r="580">
-      <c r="B580" s="41"/>
+      <c r="B580" s="40"/>
     </row>
     <row r="581">
-      <c r="B581" s="41"/>
+      <c r="B581" s="40"/>
     </row>
     <row r="582">
-      <c r="B582" s="41"/>
+      <c r="B582" s="40"/>
     </row>
     <row r="583">
-      <c r="B583" s="41"/>
+      <c r="B583" s="40"/>
     </row>
     <row r="584">
-      <c r="B584" s="41"/>
+      <c r="B584" s="40"/>
     </row>
     <row r="585">
-      <c r="B585" s="41"/>
+      <c r="B585" s="40"/>
     </row>
     <row r="586">
-      <c r="B586" s="41"/>
+      <c r="B586" s="40"/>
     </row>
     <row r="587">
-      <c r="B587" s="41"/>
+      <c r="B587" s="40"/>
     </row>
     <row r="588">
-      <c r="B588" s="41"/>
+      <c r="B588" s="40"/>
     </row>
     <row r="589">
-      <c r="B589" s="41"/>
+      <c r="B589" s="40"/>
     </row>
     <row r="590">
-      <c r="B590" s="41"/>
+      <c r="B590" s="40"/>
     </row>
     <row r="591">
-      <c r="B591" s="41"/>
+      <c r="B591" s="40"/>
     </row>
     <row r="592">
-      <c r="B592" s="41"/>
+      <c r="B592" s="40"/>
     </row>
     <row r="593">
-      <c r="B593" s="41"/>
+      <c r="B593" s="40"/>
     </row>
     <row r="594">
-      <c r="B594" s="41"/>
+      <c r="B594" s="40"/>
     </row>
     <row r="595">
-      <c r="B595" s="41"/>
+      <c r="B595" s="40"/>
     </row>
     <row r="596">
-      <c r="B596" s="41"/>
+      <c r="B596" s="40"/>
     </row>
     <row r="597">
-      <c r="B597" s="41"/>
+      <c r="B597" s="40"/>
     </row>
     <row r="598">
-      <c r="B598" s="41"/>
+      <c r="B598" s="40"/>
     </row>
     <row r="599">
-      <c r="B599" s="41"/>
+      <c r="B599" s="40"/>
     </row>
     <row r="600">
-      <c r="B600" s="41"/>
+      <c r="B600" s="40"/>
     </row>
     <row r="601">
-      <c r="B601" s="41"/>
+      <c r="B601" s="40"/>
     </row>
     <row r="602">
-      <c r="B602" s="41"/>
+      <c r="B602" s="40"/>
     </row>
     <row r="603">
-      <c r="B603" s="41"/>
+      <c r="B603" s="40"/>
     </row>
     <row r="604">
-      <c r="B604" s="41"/>
+      <c r="B604" s="40"/>
     </row>
     <row r="605">
-      <c r="B605" s="41"/>
+      <c r="B605" s="40"/>
     </row>
     <row r="606">
-      <c r="B606" s="41"/>
+      <c r="B606" s="40"/>
     </row>
     <row r="607">
-      <c r="B607" s="41"/>
+      <c r="B607" s="40"/>
     </row>
     <row r="608">
-      <c r="B608" s="41"/>
+      <c r="B608" s="40"/>
     </row>
     <row r="609">
-      <c r="B609" s="41"/>
+      <c r="B609" s="40"/>
     </row>
     <row r="610">
-      <c r="B610" s="41"/>
+      <c r="B610" s="40"/>
     </row>
     <row r="611">
-      <c r="B611" s="41"/>
+      <c r="B611" s="40"/>
     </row>
     <row r="612">
-      <c r="B612" s="41"/>
+      <c r="B612" s="40"/>
     </row>
     <row r="613">
-      <c r="B613" s="41"/>
+      <c r="B613" s="40"/>
     </row>
     <row r="614">
-      <c r="B614" s="41"/>
+      <c r="B614" s="40"/>
     </row>
     <row r="615">
-      <c r="B615" s="41"/>
+      <c r="B615" s="40"/>
     </row>
     <row r="616">
-      <c r="B616" s="41"/>
+      <c r="B616" s="40"/>
     </row>
     <row r="617">
-      <c r="B617" s="41"/>
+      <c r="B617" s="40"/>
     </row>
     <row r="618">
-      <c r="B618" s="41"/>
+      <c r="B618" s="40"/>
     </row>
     <row r="619">
-      <c r="B619" s="41"/>
+      <c r="B619" s="40"/>
     </row>
     <row r="620">
-      <c r="B620" s="41"/>
+      <c r="B620" s="40"/>
     </row>
     <row r="621">
-      <c r="B621" s="41"/>
+      <c r="B621" s="40"/>
     </row>
     <row r="622">
-      <c r="B622" s="41"/>
+      <c r="B622" s="40"/>
     </row>
     <row r="623">
-      <c r="B623" s="41"/>
+      <c r="B623" s="40"/>
     </row>
     <row r="624">
-      <c r="B624" s="41"/>
+      <c r="B624" s="40"/>
     </row>
     <row r="625">
-      <c r="B625" s="41"/>
+      <c r="B625" s="40"/>
     </row>
     <row r="626">
-      <c r="B626" s="41"/>
+      <c r="B626" s="40"/>
     </row>
     <row r="627">
-      <c r="B627" s="41"/>
+      <c r="B627" s="40"/>
     </row>
     <row r="628">
-      <c r="B628" s="41"/>
+      <c r="B628" s="40"/>
     </row>
     <row r="629">
-      <c r="B629" s="41"/>
+      <c r="B629" s="40"/>
     </row>
     <row r="630">
-      <c r="B630" s="41"/>
+      <c r="B630" s="40"/>
     </row>
     <row r="631">
-      <c r="B631" s="41"/>
+      <c r="B631" s="40"/>
     </row>
     <row r="632">
-      <c r="B632" s="41"/>
+      <c r="B632" s="40"/>
     </row>
     <row r="633">
-      <c r="B633" s="41"/>
+      <c r="B633" s="40"/>
     </row>
     <row r="634">
-      <c r="B634" s="41"/>
+      <c r="B634" s="40"/>
     </row>
     <row r="635">
-      <c r="B635" s="41"/>
+      <c r="B635" s="40"/>
     </row>
     <row r="636">
-      <c r="B636" s="41"/>
+      <c r="B636" s="40"/>
     </row>
     <row r="637">
-      <c r="B637" s="41"/>
+      <c r="B637" s="40"/>
     </row>
     <row r="638">
-      <c r="B638" s="41"/>
+      <c r="B638" s="40"/>
     </row>
     <row r="639">
-      <c r="B639" s="41"/>
+      <c r="B639" s="40"/>
     </row>
     <row r="640">
-      <c r="B640" s="41"/>
+      <c r="B640" s="40"/>
     </row>
     <row r="641">
-      <c r="B641" s="41"/>
+      <c r="B641" s="40"/>
     </row>
     <row r="642">
-      <c r="B642" s="41"/>
+      <c r="B642" s="40"/>
     </row>
     <row r="643">
-      <c r="B643" s="41"/>
+      <c r="B643" s="40"/>
     </row>
     <row r="644">
-      <c r="B644" s="41"/>
+      <c r="B644" s="40"/>
     </row>
     <row r="645">
-      <c r="B645" s="41"/>
+      <c r="B645" s="40"/>
     </row>
     <row r="646">
-      <c r="B646" s="41"/>
+      <c r="B646" s="40"/>
     </row>
     <row r="647">
-      <c r="B647" s="41"/>
+      <c r="B647" s="40"/>
     </row>
     <row r="648">
-      <c r="B648" s="41"/>
+      <c r="B648" s="40"/>
     </row>
     <row r="649">
-      <c r="B649" s="41"/>
+      <c r="B649" s="40"/>
     </row>
     <row r="650">
-      <c r="B650" s="41"/>
+      <c r="B650" s="40"/>
     </row>
     <row r="651">
-      <c r="B651" s="41"/>
+      <c r="B651" s="40"/>
     </row>
     <row r="652">
-      <c r="B652" s="41"/>
+      <c r="B652" s="40"/>
     </row>
     <row r="653">
-      <c r="B653" s="41"/>
+      <c r="B653" s="40"/>
     </row>
     <row r="654">
-      <c r="B654" s="41"/>
+      <c r="B654" s="40"/>
     </row>
     <row r="655">
-      <c r="B655" s="41"/>
+      <c r="B655" s="40"/>
     </row>
     <row r="656">
-      <c r="B656" s="41"/>
+      <c r="B656" s="40"/>
     </row>
     <row r="657">
-      <c r="B657" s="41"/>
+      <c r="B657" s="40"/>
     </row>
     <row r="658">
-      <c r="B658" s="41"/>
+      <c r="B658" s="40"/>
     </row>
     <row r="659">
-      <c r="B659" s="41"/>
+      <c r="B659" s="40"/>
     </row>
     <row r="660">
-      <c r="B660" s="41"/>
+      <c r="B660" s="40"/>
     </row>
     <row r="661">
-      <c r="B661" s="41"/>
+      <c r="B661" s="40"/>
     </row>
     <row r="662">
-      <c r="B662" s="41"/>
+      <c r="B662" s="40"/>
     </row>
     <row r="663">
-      <c r="B663" s="41"/>
+      <c r="B663" s="40"/>
     </row>
     <row r="664">
-      <c r="B664" s="41"/>
+      <c r="B664" s="40"/>
     </row>
     <row r="665">
-      <c r="B665" s="41"/>
+      <c r="B665" s="40"/>
     </row>
     <row r="666">
-      <c r="B666" s="41"/>
+      <c r="B666" s="40"/>
     </row>
     <row r="667">
-      <c r="B667" s="41"/>
+      <c r="B667" s="40"/>
     </row>
     <row r="668">
-      <c r="B668" s="41"/>
+      <c r="B668" s="40"/>
     </row>
     <row r="669">
-      <c r="B669" s="41"/>
+      <c r="B669" s="40"/>
     </row>
     <row r="670">
-      <c r="B670" s="41"/>
+      <c r="B670" s="40"/>
     </row>
     <row r="671">
-      <c r="B671" s="41"/>
+      <c r="B671" s="40"/>
     </row>
     <row r="672">
-      <c r="B672" s="41"/>
+      <c r="B672" s="40"/>
     </row>
     <row r="673">
-      <c r="B673" s="41"/>
+      <c r="B673" s="40"/>
     </row>
     <row r="674">
-      <c r="B674" s="41"/>
+      <c r="B674" s="40"/>
     </row>
     <row r="675">
-      <c r="B675" s="41"/>
+      <c r="B675" s="40"/>
     </row>
     <row r="676">
-      <c r="B676" s="41"/>
+      <c r="B676" s="40"/>
     </row>
     <row r="677">
-      <c r="B677" s="41"/>
+      <c r="B677" s="40"/>
     </row>
     <row r="678">
-      <c r="B678" s="41"/>
+      <c r="B678" s="40"/>
     </row>
     <row r="679">
-      <c r="B679" s="41"/>
+      <c r="B679" s="40"/>
     </row>
     <row r="680">
-      <c r="B680" s="41"/>
+      <c r="B680" s="40"/>
     </row>
     <row r="681">
-      <c r="B681" s="41"/>
+      <c r="B681" s="40"/>
     </row>
     <row r="682">
-      <c r="B682" s="41"/>
+      <c r="B682" s="40"/>
     </row>
     <row r="683">
-      <c r="B683" s="41"/>
+      <c r="B683" s="40"/>
     </row>
     <row r="684">
-      <c r="B684" s="41"/>
+      <c r="B684" s="40"/>
     </row>
     <row r="685">
-      <c r="B685" s="41"/>
+      <c r="B685" s="40"/>
     </row>
     <row r="686">
-      <c r="B686" s="41"/>
+      <c r="B686" s="40"/>
     </row>
     <row r="687">
-      <c r="B687" s="41"/>
+      <c r="B687" s="40"/>
     </row>
     <row r="688">
-      <c r="B688" s="41"/>
+      <c r="B688" s="40"/>
     </row>
     <row r="689">
-      <c r="B689" s="41"/>
+      <c r="B689" s="40"/>
     </row>
     <row r="690">
-      <c r="B690" s="41"/>
+      <c r="B690" s="40"/>
     </row>
     <row r="691">
-      <c r="B691" s="41"/>
+      <c r="B691" s="40"/>
     </row>
     <row r="692">
-      <c r="B692" s="41"/>
+      <c r="B692" s="40"/>
     </row>
     <row r="693">
-      <c r="B693" s="41"/>
+      <c r="B693" s="40"/>
     </row>
     <row r="694">
-      <c r="B694" s="41"/>
+      <c r="B694" s="40"/>
     </row>
     <row r="695">
-      <c r="B695" s="41"/>
+      <c r="B695" s="40"/>
     </row>
     <row r="696">
-      <c r="B696" s="41"/>
+      <c r="B696" s="40"/>
     </row>
     <row r="697">
-      <c r="B697" s="41"/>
+      <c r="B697" s="40"/>
     </row>
     <row r="698">
-      <c r="B698" s="41"/>
+      <c r="B698" s="40"/>
     </row>
     <row r="699">
-      <c r="B699" s="41"/>
+      <c r="B699" s="40"/>
     </row>
     <row r="700">
-      <c r="B700" s="41"/>
+      <c r="B700" s="40"/>
     </row>
     <row r="701">
-      <c r="B701" s="41"/>
+      <c r="B701" s="40"/>
     </row>
     <row r="702">
-      <c r="B702" s="41"/>
+      <c r="B702" s="40"/>
     </row>
     <row r="703">
-      <c r="B703" s="41"/>
+      <c r="B703" s="40"/>
     </row>
     <row r="704">
-      <c r="B704" s="41"/>
+      <c r="B704" s="40"/>
     </row>
     <row r="705">
-      <c r="B705" s="41"/>
+      <c r="B705" s="40"/>
     </row>
     <row r="706">
-      <c r="B706" s="41"/>
+      <c r="B706" s="40"/>
     </row>
     <row r="707">
-      <c r="B707" s="41"/>
+      <c r="B707" s="40"/>
     </row>
     <row r="708">
-      <c r="B708" s="41"/>
+      <c r="B708" s="40"/>
     </row>
     <row r="709">
-      <c r="B709" s="41"/>
+      <c r="B709" s="40"/>
     </row>
     <row r="710">
-      <c r="B710" s="41"/>
+      <c r="B710" s="40"/>
     </row>
     <row r="711">
-      <c r="B711" s="41"/>
+      <c r="B711" s="40"/>
     </row>
     <row r="712">
-      <c r="B712" s="41"/>
+      <c r="B712" s="40"/>
     </row>
     <row r="713">
-      <c r="B713" s="41"/>
+      <c r="B713" s="40"/>
     </row>
     <row r="714">
-      <c r="B714" s="41"/>
+      <c r="B714" s="40"/>
     </row>
     <row r="715">
-      <c r="B715" s="41"/>
+      <c r="B715" s="40"/>
     </row>
     <row r="716">
-      <c r="B716" s="41"/>
+      <c r="B716" s="40"/>
     </row>
     <row r="717">
-      <c r="B717" s="41"/>
+      <c r="B717" s="40"/>
     </row>
     <row r="718">
-      <c r="B718" s="41"/>
+      <c r="B718" s="40"/>
     </row>
     <row r="719">
-      <c r="B719" s="41"/>
+      <c r="B719" s="40"/>
     </row>
     <row r="720">
-      <c r="B720" s="41"/>
+      <c r="B720" s="40"/>
     </row>
     <row r="721">
-      <c r="B721" s="41"/>
+      <c r="B721" s="40"/>
     </row>
     <row r="722">
-      <c r="B722" s="41"/>
+      <c r="B722" s="40"/>
     </row>
     <row r="723">
-      <c r="B723" s="41"/>
+      <c r="B723" s="40"/>
     </row>
     <row r="724">
-      <c r="B724" s="41"/>
+      <c r="B724" s="40"/>
     </row>
     <row r="725">
-      <c r="B725" s="41"/>
+      <c r="B725" s="40"/>
     </row>
     <row r="726">
-      <c r="B726" s="41"/>
+      <c r="B726" s="40"/>
     </row>
     <row r="727">
-      <c r="B727" s="41"/>
+      <c r="B727" s="40"/>
     </row>
     <row r="728">
-      <c r="B728" s="41"/>
+      <c r="B728" s="40"/>
     </row>
     <row r="729">
-      <c r="B729" s="41"/>
+      <c r="B729" s="40"/>
     </row>
     <row r="730">
-      <c r="B730" s="41"/>
+      <c r="B730" s="40"/>
     </row>
     <row r="731">
-      <c r="B731" s="41"/>
+      <c r="B731" s="40"/>
     </row>
     <row r="732">
-      <c r="B732" s="41"/>
+      <c r="B732" s="40"/>
     </row>
     <row r="733">
-      <c r="B733" s="41"/>
+      <c r="B733" s="40"/>
     </row>
     <row r="734">
-      <c r="B734" s="41"/>
+      <c r="B734" s="40"/>
     </row>
     <row r="735">
-      <c r="B735" s="41"/>
+      <c r="B735" s="40"/>
     </row>
     <row r="736">
-      <c r="B736" s="41"/>
+      <c r="B736" s="40"/>
     </row>
     <row r="737">
-      <c r="B737" s="41"/>
+      <c r="B737" s="40"/>
     </row>
     <row r="738">
-      <c r="B738" s="41"/>
+      <c r="B738" s="40"/>
     </row>
     <row r="739">
-      <c r="B739" s="41"/>
+      <c r="B739" s="40"/>
     </row>
     <row r="740">
-      <c r="B740" s="41"/>
+      <c r="B740" s="40"/>
     </row>
     <row r="741">
-      <c r="B741" s="41"/>
+      <c r="B741" s="40"/>
     </row>
     <row r="742">
-      <c r="B742" s="41"/>
+      <c r="B742" s="40"/>
     </row>
     <row r="743">
-      <c r="B743" s="41"/>
+      <c r="B743" s="40"/>
     </row>
     <row r="744">
-      <c r="B744" s="41"/>
+      <c r="B744" s="40"/>
     </row>
     <row r="745">
-      <c r="B745" s="41"/>
+      <c r="B745" s="40"/>
     </row>
     <row r="746">
-      <c r="B746" s="41"/>
+      <c r="B746" s="40"/>
     </row>
     <row r="747">
-      <c r="B747" s="41"/>
+      <c r="B747" s="40"/>
     </row>
     <row r="748">
-      <c r="B748" s="41"/>
+      <c r="B748" s="40"/>
     </row>
     <row r="749">
-      <c r="B749" s="41"/>
+      <c r="B749" s="40"/>
     </row>
     <row r="750">
-      <c r="B750" s="41"/>
+      <c r="B750" s="40"/>
     </row>
     <row r="751">
-      <c r="B751" s="41"/>
+      <c r="B751" s="40"/>
     </row>
     <row r="752">
-      <c r="B752" s="41"/>
+      <c r="B752" s="40"/>
     </row>
     <row r="753">
-      <c r="B753" s="41"/>
+      <c r="B753" s="40"/>
     </row>
     <row r="754">
-      <c r="B754" s="41"/>
+      <c r="B754" s="40"/>
     </row>
     <row r="755">
-      <c r="B755" s="41"/>
+      <c r="B755" s="40"/>
     </row>
     <row r="756">
-      <c r="B756" s="41"/>
+      <c r="B756" s="40"/>
     </row>
     <row r="757">
-      <c r="B757" s="41"/>
+      <c r="B757" s="40"/>
     </row>
     <row r="758">
-      <c r="B758" s="41"/>
+      <c r="B758" s="40"/>
     </row>
     <row r="759">
-      <c r="B759" s="41"/>
+      <c r="B759" s="40"/>
     </row>
     <row r="760">
-      <c r="B760" s="41"/>
+      <c r="B760" s="40"/>
     </row>
     <row r="761">
-      <c r="B761" s="41"/>
+      <c r="B761" s="40"/>
     </row>
     <row r="762">
-      <c r="B762" s="41"/>
+      <c r="B762" s="40"/>
     </row>
     <row r="763">
-      <c r="B763" s="41"/>
+      <c r="B763" s="40"/>
     </row>
     <row r="764">
-      <c r="B764" s="41"/>
+      <c r="B764" s="40"/>
     </row>
     <row r="765">
-      <c r="B765" s="41"/>
+      <c r="B765" s="40"/>
     </row>
     <row r="766">
-      <c r="B766" s="41"/>
+      <c r="B766" s="40"/>
     </row>
     <row r="767">
-      <c r="B767" s="41"/>
+      <c r="B767" s="40"/>
     </row>
     <row r="768">
-      <c r="B768" s="41"/>
+      <c r="B768" s="40"/>
     </row>
     <row r="769">
-      <c r="B769" s="41"/>
+      <c r="B769" s="40"/>
     </row>
     <row r="770">
-      <c r="B770" s="41"/>
+      <c r="B770" s="40"/>
     </row>
     <row r="771">
-      <c r="B771" s="41"/>
+      <c r="B771" s="40"/>
     </row>
     <row r="772">
-      <c r="B772" s="41"/>
+      <c r="B772" s="40"/>
     </row>
     <row r="773">
-      <c r="B773" s="41"/>
+      <c r="B773" s="40"/>
     </row>
     <row r="774">
-      <c r="B774" s="41"/>
+      <c r="B774" s="40"/>
     </row>
     <row r="775">
-      <c r="B775" s="41"/>
+      <c r="B775" s="40"/>
     </row>
     <row r="776">
-      <c r="B776" s="41"/>
+      <c r="B776" s="40"/>
     </row>
     <row r="777">
-      <c r="B777" s="41"/>
+      <c r="B777" s="40"/>
     </row>
     <row r="778">
-      <c r="B778" s="41"/>
+      <c r="B778" s="40"/>
     </row>
     <row r="779">
-      <c r="B779" s="41"/>
+      <c r="B779" s="40"/>
     </row>
     <row r="780">
-      <c r="B780" s="41"/>
+      <c r="B780" s="40"/>
     </row>
     <row r="781">
-      <c r="B781" s="41"/>
+      <c r="B781" s="40"/>
     </row>
     <row r="782">
-      <c r="B782" s="41"/>
+      <c r="B782" s="40"/>
     </row>
     <row r="783">
-      <c r="B783" s="41"/>
+      <c r="B783" s="40"/>
     </row>
     <row r="784">
-      <c r="B784" s="41"/>
+      <c r="B784" s="40"/>
     </row>
     <row r="785">
-      <c r="B785" s="41"/>
+      <c r="B785" s="40"/>
     </row>
     <row r="786">
-      <c r="B786" s="41"/>
+      <c r="B786" s="40"/>
     </row>
     <row r="787">
-      <c r="B787" s="41"/>
+      <c r="B787" s="40"/>
     </row>
     <row r="788">
-      <c r="B788" s="41"/>
+      <c r="B788" s="40"/>
     </row>
     <row r="789">
-      <c r="B789" s="41"/>
+      <c r="B789" s="40"/>
     </row>
     <row r="790">
-      <c r="B790" s="41"/>
+      <c r="B790" s="40"/>
     </row>
     <row r="791">
-      <c r="B791" s="41"/>
+      <c r="B791" s="40"/>
     </row>
     <row r="792">
-      <c r="B792" s="41"/>
+      <c r="B792" s="40"/>
     </row>
     <row r="793">
-      <c r="B793" s="41"/>
+      <c r="B793" s="40"/>
     </row>
     <row r="794">
-      <c r="B794" s="41"/>
+      <c r="B794" s="40"/>
     </row>
     <row r="795">
-      <c r="B795" s="41"/>
+      <c r="B795" s="40"/>
     </row>
     <row r="796">
-      <c r="B796" s="41"/>
+      <c r="B796" s="40"/>
     </row>
     <row r="797">
-      <c r="B797" s="41"/>
+      <c r="B797" s="40"/>
     </row>
     <row r="798">
-      <c r="B798" s="41"/>
+      <c r="B798" s="40"/>
     </row>
     <row r="799">
-      <c r="B799" s="41"/>
+      <c r="B799" s="40"/>
     </row>
     <row r="800">
-      <c r="B800" s="41"/>
+      <c r="B800" s="40"/>
     </row>
     <row r="801">
-      <c r="B801" s="41"/>
+      <c r="B801" s="40"/>
     </row>
     <row r="802">
-      <c r="B802" s="41"/>
+      <c r="B802" s="40"/>
     </row>
     <row r="803">
-      <c r="B803" s="41"/>
+      <c r="B803" s="40"/>
     </row>
     <row r="804">
-      <c r="B804" s="41"/>
+      <c r="B804" s="40"/>
     </row>
     <row r="805">
-      <c r="B805" s="41"/>
+      <c r="B805" s="40"/>
     </row>
     <row r="806">
-      <c r="B806" s="41"/>
+      <c r="B806" s="40"/>
     </row>
     <row r="807">
-      <c r="B807" s="41"/>
+      <c r="B807" s="40"/>
     </row>
     <row r="808">
-      <c r="B808" s="41"/>
+      <c r="B808" s="40"/>
     </row>
     <row r="809">
-      <c r="B809" s="41"/>
+      <c r="B809" s="40"/>
     </row>
     <row r="810">
-      <c r="B810" s="41"/>
+      <c r="B810" s="40"/>
     </row>
     <row r="811">
-      <c r="B811" s="41"/>
+      <c r="B811" s="40"/>
     </row>
     <row r="812">
-      <c r="B812" s="41"/>
+      <c r="B812" s="40"/>
     </row>
     <row r="813">
-      <c r="B813" s="41"/>
+      <c r="B813" s="40"/>
     </row>
     <row r="814">
-      <c r="B814" s="41"/>
+      <c r="B814" s="40"/>
     </row>
     <row r="815">
-      <c r="B815" s="41"/>
+      <c r="B815" s="40"/>
     </row>
     <row r="816">
-      <c r="B816" s="41"/>
+      <c r="B816" s="40"/>
     </row>
     <row r="817">
-      <c r="B817" s="41"/>
+      <c r="B817" s="40"/>
     </row>
     <row r="818">
-      <c r="B818" s="41"/>
+      <c r="B818" s="40"/>
     </row>
     <row r="819">
-      <c r="B819" s="41"/>
+      <c r="B819" s="40"/>
     </row>
     <row r="820">
-      <c r="B820" s="41"/>
+      <c r="B820" s="40"/>
     </row>
     <row r="821">
-      <c r="B821" s="41"/>
+      <c r="B821" s="40"/>
     </row>
     <row r="822">
-      <c r="B822" s="41"/>
+      <c r="B822" s="40"/>
     </row>
     <row r="823">
-      <c r="B823" s="41"/>
+      <c r="B823" s="40"/>
     </row>
     <row r="824">
-      <c r="B824" s="41"/>
+      <c r="B824" s="40"/>
     </row>
     <row r="825">
-      <c r="B825" s="41"/>
+      <c r="B825" s="40"/>
     </row>
     <row r="826">
-      <c r="B826" s="41"/>
+      <c r="B826" s="40"/>
     </row>
     <row r="827">
-      <c r="B827" s="41"/>
+      <c r="B827" s="40"/>
     </row>
     <row r="828">
-      <c r="B828" s="41"/>
+      <c r="B828" s="40"/>
     </row>
     <row r="829">
-      <c r="B829" s="41"/>
+      <c r="B829" s="40"/>
     </row>
     <row r="830">
-      <c r="B830" s="41"/>
+      <c r="B830" s="40"/>
     </row>
     <row r="831">
-      <c r="B831" s="41"/>
+      <c r="B831" s="40"/>
     </row>
     <row r="832">
-      <c r="B832" s="41"/>
+      <c r="B832" s="40"/>
     </row>
     <row r="833">
-      <c r="B833" s="41"/>
+      <c r="B833" s="40"/>
     </row>
     <row r="834">
-      <c r="B834" s="41"/>
+      <c r="B834" s="40"/>
     </row>
     <row r="835">
-      <c r="B835" s="41"/>
+      <c r="B835" s="40"/>
     </row>
     <row r="836">
-      <c r="B836" s="41"/>
+      <c r="B836" s="40"/>
     </row>
     <row r="837">
-      <c r="B837" s="41"/>
+      <c r="B837" s="40"/>
     </row>
     <row r="838">
-      <c r="B838" s="41"/>
+      <c r="B838" s="40"/>
     </row>
     <row r="839">
-      <c r="B839" s="41"/>
+      <c r="B839" s="40"/>
     </row>
     <row r="840">
-      <c r="B840" s="41"/>
+      <c r="B840" s="40"/>
     </row>
     <row r="841">
-      <c r="B841" s="41"/>
+      <c r="B841" s="40"/>
     </row>
     <row r="842">
-      <c r="B842" s="41"/>
+      <c r="B842" s="40"/>
     </row>
     <row r="843">
-      <c r="B843" s="41"/>
+      <c r="B843" s="40"/>
     </row>
     <row r="844">
-      <c r="B844" s="41"/>
+      <c r="B844" s="40"/>
     </row>
     <row r="845">
-      <c r="B845" s="41"/>
+      <c r="B845" s="40"/>
     </row>
     <row r="846">
-      <c r="B846" s="41"/>
+      <c r="B846" s="40"/>
     </row>
     <row r="847">
-      <c r="B847" s="41"/>
+      <c r="B847" s="40"/>
     </row>
     <row r="848">
-      <c r="B848" s="41"/>
+      <c r="B848" s="40"/>
     </row>
     <row r="849">
-      <c r="B849" s="41"/>
+      <c r="B849" s="40"/>
     </row>
     <row r="850">
-      <c r="B850" s="41"/>
+      <c r="B850" s="40"/>
     </row>
     <row r="851">
-      <c r="B851" s="41"/>
+      <c r="B851" s="40"/>
     </row>
     <row r="852">
-      <c r="B852" s="41"/>
+      <c r="B852" s="40"/>
     </row>
     <row r="853">
-      <c r="B853" s="41"/>
+      <c r="B853" s="40"/>
     </row>
     <row r="854">
-      <c r="B854" s="41"/>
+      <c r="B854" s="40"/>
     </row>
     <row r="855">
-      <c r="B855" s="41"/>
+      <c r="B855" s="40"/>
     </row>
     <row r="856">
-      <c r="B856" s="41"/>
+      <c r="B856" s="40"/>
     </row>
     <row r="857">
-      <c r="B857" s="41"/>
+      <c r="B857" s="40"/>
     </row>
     <row r="858">
-      <c r="B858" s="41"/>
+      <c r="B858" s="40"/>
     </row>
     <row r="859">
-      <c r="B859" s="41"/>
+      <c r="B859" s="40"/>
     </row>
     <row r="860">
-      <c r="B860" s="41"/>
+      <c r="B860" s="40"/>
     </row>
     <row r="861">
-      <c r="B861" s="41"/>
+      <c r="B861" s="40"/>
     </row>
     <row r="862">
-      <c r="B862" s="41"/>
+      <c r="B862" s="40"/>
     </row>
     <row r="863">
-      <c r="B863" s="41"/>
+      <c r="B863" s="40"/>
     </row>
     <row r="864">
-      <c r="B864" s="41"/>
+      <c r="B864" s="40"/>
     </row>
     <row r="865">
-      <c r="B865" s="41"/>
+      <c r="B865" s="40"/>
     </row>
     <row r="866">
-      <c r="B866" s="41"/>
+      <c r="B866" s="40"/>
     </row>
     <row r="867">
-      <c r="B867" s="41"/>
+      <c r="B867" s="40"/>
     </row>
     <row r="868">
-      <c r="B868" s="41"/>
+      <c r="B868" s="40"/>
     </row>
     <row r="869">
-      <c r="B869" s="41"/>
+      <c r="B869" s="40"/>
     </row>
     <row r="870">
-      <c r="B870" s="41"/>
+      <c r="B870" s="40"/>
     </row>
     <row r="871">
-      <c r="B871" s="41"/>
+      <c r="B871" s="40"/>
     </row>
     <row r="872">
-      <c r="B872" s="41"/>
+      <c r="B872" s="40"/>
     </row>
     <row r="873">
-      <c r="B873" s="41"/>
+      <c r="B873" s="40"/>
     </row>
     <row r="874">
-      <c r="B874" s="41"/>
+      <c r="B874" s="40"/>
     </row>
     <row r="875">
-      <c r="B875" s="41"/>
+      <c r="B875" s="40"/>
     </row>
     <row r="876">
-      <c r="B876" s="41"/>
+      <c r="B876" s="40"/>
     </row>
     <row r="877">
-      <c r="B877" s="41"/>
+      <c r="B877" s="40"/>
     </row>
     <row r="878">
-      <c r="B878" s="41"/>
+      <c r="B878" s="40"/>
     </row>
     <row r="879">
-      <c r="B879" s="41"/>
+      <c r="B879" s="40"/>
     </row>
     <row r="880">
-      <c r="B880" s="41"/>
+      <c r="B880" s="40"/>
     </row>
     <row r="881">
-      <c r="B881" s="41"/>
+      <c r="B881" s="40"/>
     </row>
     <row r="882">
-      <c r="B882" s="41"/>
+      <c r="B882" s="40"/>
     </row>
     <row r="883">
-      <c r="B883" s="41"/>
+      <c r="B883" s="40"/>
     </row>
     <row r="884">
-      <c r="B884" s="41"/>
+      <c r="B884" s="40"/>
     </row>
     <row r="885">
-      <c r="B885" s="41"/>
+      <c r="B885" s="40"/>
     </row>
     <row r="886">
-      <c r="B886" s="41"/>
+      <c r="B886" s="40"/>
     </row>
     <row r="887">
-      <c r="B887" s="41"/>
+      <c r="B887" s="40"/>
     </row>
     <row r="888">
-      <c r="B888" s="41"/>
+      <c r="B888" s="40"/>
     </row>
     <row r="889">
-      <c r="B889" s="41"/>
+      <c r="B889" s="40"/>
     </row>
     <row r="890">
-      <c r="B890" s="41"/>
+      <c r="B890" s="40"/>
     </row>
     <row r="891">
-      <c r="B891" s="41"/>
+      <c r="B891" s="40"/>
     </row>
     <row r="892">
-      <c r="B892" s="41"/>
+      <c r="B892" s="40"/>
     </row>
     <row r="893">
-      <c r="B893" s="41"/>
+      <c r="B893" s="40"/>
     </row>
     <row r="894">
-      <c r="B894" s="41"/>
+      <c r="B894" s="40"/>
     </row>
     <row r="895">
-      <c r="B895" s="41"/>
+      <c r="B895" s="40"/>
     </row>
     <row r="896">
-      <c r="B896" s="41"/>
+      <c r="B896" s="40"/>
     </row>
     <row r="897">
-      <c r="B897" s="41"/>
+      <c r="B897" s="40"/>
     </row>
     <row r="898">
-      <c r="B898" s="41"/>
+      <c r="B898" s="40"/>
     </row>
     <row r="899">
-      <c r="B899" s="41"/>
+      <c r="B899" s="40"/>
     </row>
     <row r="900">
-      <c r="B900" s="41"/>
+      <c r="B900" s="40"/>
     </row>
     <row r="901">
-      <c r="B901" s="41"/>
+      <c r="B901" s="40"/>
     </row>
     <row r="902">
-      <c r="B902" s="41"/>
+      <c r="B902" s="40"/>
     </row>
     <row r="903">
-      <c r="B903" s="41"/>
+      <c r="B903" s="40"/>
     </row>
     <row r="904">
-      <c r="B904" s="41"/>
+      <c r="B904" s="40"/>
     </row>
     <row r="905">
-      <c r="B905" s="41"/>
+      <c r="B905" s="40"/>
     </row>
     <row r="906">
-      <c r="B906" s="41"/>
+      <c r="B906" s="40"/>
     </row>
     <row r="907">
-      <c r="B907" s="41"/>
+      <c r="B907" s="40"/>
     </row>
     <row r="908">
-      <c r="B908" s="41"/>
+      <c r="B908" s="40"/>
     </row>
     <row r="909">
-      <c r="B909" s="41"/>
+      <c r="B909" s="40"/>
     </row>
     <row r="910">
-      <c r="B910" s="41"/>
+      <c r="B910" s="40"/>
     </row>
     <row r="911">
-      <c r="B911" s="41"/>
+      <c r="B911" s="40"/>
     </row>
     <row r="912">
-      <c r="B912" s="41"/>
+      <c r="B912" s="40"/>
     </row>
     <row r="913">
-      <c r="B913" s="41"/>
+      <c r="B913" s="40"/>
     </row>
     <row r="914">
-      <c r="B914" s="41"/>
+      <c r="B914" s="40"/>
     </row>
     <row r="915">
-      <c r="B915" s="41"/>
+      <c r="B915" s="40"/>
     </row>
     <row r="916">
-      <c r="B916" s="41"/>
+      <c r="B916" s="40"/>
     </row>
     <row r="917">
-      <c r="B917" s="41"/>
+      <c r="B917" s="40"/>
     </row>
     <row r="918">
-      <c r="B918" s="41"/>
+      <c r="B918" s="40"/>
     </row>
     <row r="919">
-      <c r="B919" s="41"/>
+      <c r="B919" s="40"/>
     </row>
     <row r="920">
-      <c r="B920" s="41"/>
+      <c r="B920" s="40"/>
     </row>
     <row r="921">
-      <c r="B921" s="41"/>
+      <c r="B921" s="40"/>
     </row>
     <row r="922">
-      <c r="B922" s="41"/>
+      <c r="B922" s="40"/>
     </row>
     <row r="923">
-      <c r="B923" s="41"/>
+      <c r="B923" s="40"/>
     </row>
     <row r="924">
-      <c r="B924" s="41"/>
+      <c r="B924" s="40"/>
     </row>
     <row r="925">
-      <c r="B925" s="41"/>
+      <c r="B925" s="40"/>
     </row>
     <row r="926">
-      <c r="B926" s="41"/>
+      <c r="B926" s="40"/>
     </row>
     <row r="927">
-      <c r="B927" s="41"/>
+      <c r="B927" s="40"/>
     </row>
     <row r="928">
-      <c r="B928" s="41"/>
+      <c r="B928" s="40"/>
     </row>
     <row r="929">
-      <c r="B929" s="41"/>
+      <c r="B929" s="40"/>
     </row>
     <row r="930">
-      <c r="B930" s="41"/>
+      <c r="B930" s="40"/>
     </row>
     <row r="931">
-      <c r="B931" s="41"/>
+      <c r="B931" s="40"/>
     </row>
     <row r="932">
-      <c r="B932" s="41"/>
+      <c r="B932" s="40"/>
     </row>
     <row r="933">
-      <c r="B933" s="41"/>
+      <c r="B933" s="40"/>
     </row>
     <row r="934">
-      <c r="B934" s="41"/>
+      <c r="B934" s="40"/>
     </row>
     <row r="935">
-      <c r="B935" s="41"/>
+      <c r="B935" s="40"/>
     </row>
     <row r="936">
-      <c r="B936" s="41"/>
+      <c r="B936" s="40"/>
     </row>
     <row r="937">
-      <c r="B937" s="41"/>
+      <c r="B937" s="40"/>
     </row>
     <row r="938">
-      <c r="B938" s="41"/>
+      <c r="B938" s="40"/>
     </row>
     <row r="939">
-      <c r="B939" s="41"/>
+      <c r="B939" s="40"/>
     </row>
     <row r="940">
-      <c r="B940" s="41"/>
+      <c r="B940" s="40"/>
     </row>
     <row r="941">
-      <c r="B941" s="41"/>
+      <c r="B941" s="40"/>
     </row>
     <row r="942">
-      <c r="B942" s="41"/>
+      <c r="B942" s="40"/>
     </row>
     <row r="943">
-      <c r="B943" s="41"/>
+      <c r="B943" s="40"/>
     </row>
     <row r="944">
-      <c r="B944" s="41"/>
+      <c r="B944" s="40"/>
     </row>
     <row r="945">
-      <c r="B945" s="41"/>
+      <c r="B945" s="40"/>
     </row>
     <row r="946">
-      <c r="B946" s="41"/>
+      <c r="B946" s="40"/>
     </row>
     <row r="947">
-      <c r="B947" s="41"/>
+      <c r="B947" s="40"/>
     </row>
     <row r="948">
-      <c r="B948" s="41"/>
+      <c r="B948" s="40"/>
     </row>
     <row r="949">
-      <c r="B949" s="41"/>
+      <c r="B949" s="40"/>
     </row>
     <row r="950">
-      <c r="B950" s="41"/>
+      <c r="B950" s="40"/>
     </row>
     <row r="951">
-      <c r="B951" s="41"/>
+      <c r="B951" s="40"/>
     </row>
     <row r="952">
-      <c r="B952" s="41"/>
+      <c r="B952" s="40"/>
     </row>
     <row r="953">
-      <c r="B953" s="41"/>
+      <c r="B953" s="40"/>
     </row>
     <row r="954">
-      <c r="B954" s="41"/>
+      <c r="B954" s="40"/>
     </row>
     <row r="955">
-      <c r="B955" s="41"/>
+      <c r="B955" s="40"/>
     </row>
     <row r="956">
-      <c r="B956" s="41"/>
+      <c r="B956" s="40"/>
     </row>
     <row r="957">
-      <c r="B957" s="41"/>
+      <c r="B957" s="40"/>
     </row>
     <row r="958">
-      <c r="B958" s="41"/>
+      <c r="B958" s="40"/>
     </row>
     <row r="959">
-      <c r="B959" s="41"/>
+      <c r="B959" s="40"/>
     </row>
     <row r="960">
-      <c r="B960" s="41"/>
+      <c r="B960" s="40"/>
     </row>
     <row r="961">
-      <c r="B961" s="41"/>
+      <c r="B961" s="40"/>
     </row>
     <row r="962">
-      <c r="B962" s="41"/>
+      <c r="B962" s="40"/>
     </row>
     <row r="963">
-      <c r="B963" s="41"/>
+      <c r="B963" s="40"/>
     </row>
     <row r="964">
-      <c r="B964" s="41"/>
+      <c r="B964" s="40"/>
     </row>
     <row r="965">
-      <c r="B965" s="41"/>
+      <c r="B965" s="40"/>
     </row>
     <row r="966">
-      <c r="B966" s="41"/>
+      <c r="B966" s="40"/>
     </row>
     <row r="967">
-      <c r="B967" s="41"/>
+      <c r="B967" s="40"/>
     </row>
     <row r="968">
-      <c r="B968" s="41"/>
+      <c r="B968" s="40"/>
     </row>
     <row r="969">
-      <c r="B969" s="41"/>
+      <c r="B969" s="40"/>
     </row>
     <row r="970">
-      <c r="B970" s="41"/>
+      <c r="B970" s="40"/>
     </row>
     <row r="971">
-      <c r="B971" s="41"/>
+      <c r="B971" s="40"/>
     </row>
     <row r="972">
-      <c r="B972" s="41"/>
+      <c r="B972" s="40"/>
     </row>
     <row r="973">
-      <c r="B973" s="41"/>
+      <c r="B973" s="40"/>
     </row>
     <row r="974">
-      <c r="B974" s="41"/>
+      <c r="B974" s="40"/>
     </row>
     <row r="975">
-      <c r="B975" s="41"/>
+      <c r="B975" s="40"/>
     </row>
     <row r="976">
-      <c r="B976" s="41"/>
+      <c r="B976" s="40"/>
     </row>
     <row r="977">
-      <c r="B977" s="41"/>
+      <c r="B977" s="40"/>
     </row>
     <row r="978">
-      <c r="B978" s="41"/>
+      <c r="B978" s="40"/>
     </row>
     <row r="979">
-      <c r="B979" s="41"/>
+      <c r="B979" s="40"/>
     </row>
     <row r="980">
-      <c r="B980" s="41"/>
+      <c r="B980" s="40"/>
     </row>
     <row r="981">
-      <c r="B981" s="41"/>
+      <c r="B981" s="40"/>
     </row>
     <row r="982">
-      <c r="B982" s="41"/>
+      <c r="B982" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="11">
